--- a/Tritons_GMS_Off_Deff_RTG_DATA.xlsx
+++ b/Tritons_GMS_Off_Deff_RTG_DATA.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waelivie/Desktop/MBB_performance_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E452F7E4-3B85-DE43-AFF9-6517C981BDE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7F9C12-8A7E-3D4F-909A-4D7D6ECCD4E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="3" xr2:uid="{9FD8A52A-3127-344B-A9F5-620F4B196F8F}"/>
+    <workbookView xWindow="760" yWindow="1340" windowWidth="28040" windowHeight="17040" activeTab="6" xr2:uid="{9FD8A52A-3127-344B-A9F5-620F4B196F8F}"/>
   </bookViews>
   <sheets>
     <sheet name="GM6" sheetId="1" r:id="rId1"/>
     <sheet name="GM7" sheetId="2" r:id="rId2"/>
     <sheet name="GM8" sheetId="3" r:id="rId3"/>
     <sheet name="GM9" sheetId="4" r:id="rId4"/>
+    <sheet name="GM10" sheetId="5" r:id="rId5"/>
+    <sheet name="GM11" sheetId="6" r:id="rId6"/>
+    <sheet name="GM12" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="18">
   <si>
     <t>Pts</t>
   </si>
@@ -79,18 +82,44 @@
   <si>
     <t>Wildcats</t>
   </si>
+  <si>
+    <t>Toros</t>
+  </si>
+  <si>
+    <t>Seawolves</t>
+  </si>
+  <si>
+    <t>Broncos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totals </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,12 +142,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1347,8 +1379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA22738D-AF4E-9647-87CF-0674F1A1366F}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1536,4 +1568,310 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AA844A-69D4-144D-B0EF-E7356D6AF833}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>84</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>49</v>
+      </c>
+      <c r="G2">
+        <v>28</v>
+      </c>
+      <c r="H2">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545B6F99-36FC-B143-AE38-8A9EE9CBAC47}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>84</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>62</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>69</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>49</v>
+      </c>
+      <c r="G3">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DEE0291-B773-214F-A3A4-98DFEB297FA5}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>49</v>
+      </c>
+      <c r="G2">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>66</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>48</v>
+      </c>
+      <c r="G3">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>